--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_23_29.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_23_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2122883.667097552</v>
+        <v>2120631.587386344</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283191</v>
+        <v>416855.1052283188</v>
       </c>
     </row>
     <row r="9">
@@ -659,16 +659,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>120.774090540354</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>410.9217256534534</v>
@@ -677,7 +677,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,13 +710,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>37.93649886016453</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -753,10 +753,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851095</v>
+        <v>89.59687541851002</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -817,22 +817,22 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>94.57983363107959</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>28.46932083023279</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -862,10 +862,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -874,10 +874,10 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -899,19 +899,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0.3107267886856425</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>41.57692977292595</v>
@@ -944,22 +944,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>92.47445699814307</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1057,10 +1057,10 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1069,7 +1069,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1099,16 +1099,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>53.54735467376837</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>119.5036915764482</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>10.92172565345345</v>
+        <v>139.175595971221</v>
       </c>
       <c r="H8" t="n">
-        <v>27.558055240264</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,13 +1181,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1227,10 +1227,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1288,28 +1288,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>32.64393945254965</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>58.28185552386348</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,13 +1336,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1436,7 +1436,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560522</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1531,16 +1531,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
@@ -1591,10 +1591,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>38.95525409458224</v>
       </c>
       <c r="Y13" t="n">
-        <v>161.3555494301481</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1768,22 +1768,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>18.70843787977265</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>161.3555494301526</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1844,7 +1844,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -2002,10 +2002,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>110.0177171766856</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2014,10 +2014,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>99.97427419833657</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2056,7 +2056,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>286.1844743892457</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2242,22 +2242,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>18.70843787977262</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>108.2950343703266</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2315,7 +2315,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -2330,7 +2330,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187868</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2479,7 +2479,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2491,7 +2491,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2527,7 +2527,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>11.56087338713362</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2570,7 +2570,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2713,19 +2713,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>101.6969570046953</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>23.10998325717174</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2804,7 +2804,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187868</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2953,13 +2953,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>78.6882778203391</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -2968,7 +2968,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3004,16 +3004,16 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>33.0162797694411</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3424,22 +3424,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>121.8000472740347</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3664,10 +3664,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3676,7 +3676,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3721,7 +3721,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>229.2938944146487</v>
+        <v>74.53917159609126</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3895,16 +3895,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>135.0949745400652</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3913,7 +3913,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -4144,16 +4144,16 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>21.90286287505374</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4189,7 +4189,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4304,16 +4304,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1601.11348746897</v>
+        <v>1308.370295943747</v>
       </c>
       <c r="C2" t="n">
-        <v>1232.150970528558</v>
+        <v>1186.376265094905</v>
       </c>
       <c r="D2" t="n">
-        <v>1232.150970528558</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528558</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F2" t="n">
         <v>821.1650657389509</v>
@@ -4328,10 +4328,10 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
@@ -4340,7 +4340,7 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O2" t="n">
         <v>2623.528026939508</v>
@@ -4364,16 +4364,16 @@
         <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>2717.487232975976</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W2" t="n">
-        <v>2364.718577705862</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X2" t="n">
-        <v>1991.252819444782</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y2" t="n">
-        <v>1601.11348746897</v>
+        <v>1308.370295943747</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601587</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927777</v>
+        <v>176.0213023927768</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I3" t="n">
         <v>66.51211643218342</v>
@@ -4410,10 +4410,10 @@
         <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
@@ -4425,31 +4425,31 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y3" t="n">
         <v>1109.759191501176</v>
@@ -4462,22 +4462,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>920.8870058181849</v>
+        <v>95.26900615969129</v>
       </c>
       <c r="C4" t="n">
-        <v>825.3518203322459</v>
+        <v>95.26900615969129</v>
       </c>
       <c r="D4" t="n">
-        <v>675.2351809199101</v>
+        <v>95.26900615969129</v>
       </c>
       <c r="E4" t="n">
-        <v>527.322087337517</v>
+        <v>95.26900615969129</v>
       </c>
       <c r="F4" t="n">
-        <v>380.4321398396066</v>
+        <v>95.26900615969129</v>
       </c>
       <c r="G4" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H4" t="n">
         <v>66.51211643218342</v>
@@ -4486,52 +4486,52 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962284</v>
       </c>
       <c r="K4" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L4" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596504</v>
       </c>
       <c r="M4" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588481</v>
       </c>
       <c r="N4" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886956</v>
       </c>
       <c r="O4" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068853</v>
       </c>
       <c r="P4" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596438</v>
       </c>
       <c r="Q4" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="R4" t="n">
-        <v>920.8870058181849</v>
+        <v>831.0565485757124</v>
       </c>
       <c r="S4" t="n">
-        <v>920.8870058181849</v>
+        <v>639.3706644025388</v>
       </c>
       <c r="T4" t="n">
-        <v>920.8870058181849</v>
+        <v>639.3706644025388</v>
       </c>
       <c r="U4" t="n">
-        <v>920.8870058181849</v>
+        <v>639.3706644025388</v>
       </c>
       <c r="V4" t="n">
-        <v>920.8870058181849</v>
+        <v>384.6861761966519</v>
       </c>
       <c r="W4" t="n">
-        <v>920.8870058181849</v>
+        <v>95.26900615969129</v>
       </c>
       <c r="X4" t="n">
-        <v>920.8870058181849</v>
+        <v>95.26900615969129</v>
       </c>
       <c r="Y4" t="n">
-        <v>920.8870058181849</v>
+        <v>95.26900615969129</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2345.167438673965</v>
+        <v>1285.591601078694</v>
       </c>
       <c r="C5" t="n">
-        <v>1976.204921733553</v>
+        <v>916.6290841382827</v>
       </c>
       <c r="D5" t="n">
-        <v>1617.939223126803</v>
+        <v>916.3152186951659</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528558</v>
+        <v>530.5269660969217</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
@@ -4568,7 +4568,7 @@
         <v>255.3912473912088</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810551</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329464</v>
@@ -4592,25 +4592,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136266</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="U5" t="n">
-        <v>3215.315153136266</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="V5" t="n">
-        <v>3215.315153136266</v>
+        <v>2788.565186649822</v>
       </c>
       <c r="W5" t="n">
-        <v>3215.315153136266</v>
+        <v>2435.796531379708</v>
       </c>
       <c r="X5" t="n">
-        <v>3121.906610713899</v>
+        <v>2062.330773118628</v>
       </c>
       <c r="Y5" t="n">
-        <v>2731.767278738087</v>
+        <v>1672.191441142816</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387309</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K6" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158137</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4699,22 +4699,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>510.7590362090544</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="C7" t="n">
-        <v>510.7590362090544</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D7" t="n">
-        <v>360.6423967967187</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E7" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F7" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G7" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H7" t="n">
         <v>66.51211643218342</v>
@@ -4747,28 +4747,28 @@
         <v>920.8870058181849</v>
       </c>
       <c r="R7" t="n">
-        <v>920.8870058181849</v>
+        <v>866.7987687739744</v>
       </c>
       <c r="S7" t="n">
-        <v>920.8870058181849</v>
+        <v>866.7987687739744</v>
       </c>
       <c r="T7" t="n">
-        <v>800.176206246015</v>
+        <v>645.0321533435005</v>
       </c>
       <c r="U7" t="n">
-        <v>800.176206246015</v>
+        <v>355.929286469144</v>
       </c>
       <c r="V7" t="n">
-        <v>800.176206246015</v>
+        <v>355.929286469144</v>
       </c>
       <c r="W7" t="n">
-        <v>510.7590362090544</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="X7" t="n">
-        <v>510.7590362090544</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="Y7" t="n">
-        <v>510.7590362090544</v>
+        <v>66.51211643218342</v>
       </c>
     </row>
     <row r="8">
@@ -4778,43 +4778,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1285.591601078694</v>
+        <v>1308.370295943747</v>
       </c>
       <c r="C8" t="n">
-        <v>916.6290841382822</v>
+        <v>939.4077790033357</v>
       </c>
       <c r="D8" t="n">
-        <v>558.3633855315318</v>
+        <v>939.4077790033357</v>
       </c>
       <c r="E8" t="n">
-        <v>558.3633855315318</v>
+        <v>553.6195264050914</v>
       </c>
       <c r="F8" t="n">
-        <v>147.3774807419242</v>
+        <v>546.6740256558879</v>
       </c>
       <c r="G8" t="n">
-        <v>136.3454346273248</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
         <v>2623.528026939508</v>
@@ -4826,28 +4826,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3119.628073993392</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U8" t="n">
-        <v>3119.628073993392</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V8" t="n">
-        <v>2788.565186649821</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W8" t="n">
-        <v>2435.796531379707</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X8" t="n">
-        <v>2062.330773118627</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y8" t="n">
-        <v>1672.191441142816</v>
+        <v>1308.370295943747</v>
       </c>
     </row>
     <row r="9">
@@ -4872,28 +4872,28 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
         <v>2096.912393410638</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>739.2385409879452</v>
+        <v>196.8114698285347</v>
       </c>
       <c r="C10" t="n">
-        <v>570.3023580600383</v>
+        <v>196.8114698285347</v>
       </c>
       <c r="D10" t="n">
-        <v>420.1857186477025</v>
+        <v>196.8114698285347</v>
       </c>
       <c r="E10" t="n">
-        <v>272.2726250653094</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="F10" t="n">
-        <v>125.382677567399</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="G10" t="n">
-        <v>66.5121164321834</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H10" t="n">
-        <v>66.5121164321834</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962286</v>
+        <v>78.33486996962284</v>
       </c>
       <c r="K10" t="n">
         <v>176.6457242372932</v>
       </c>
       <c r="L10" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596504</v>
       </c>
       <c r="M10" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588481</v>
       </c>
       <c r="N10" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886956</v>
       </c>
       <c r="O10" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068853</v>
       </c>
       <c r="P10" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596438</v>
       </c>
       <c r="Q10" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="R10" t="n">
-        <v>920.8870058181849</v>
+        <v>831.0565485757124</v>
       </c>
       <c r="S10" t="n">
-        <v>920.8870058181849</v>
+        <v>639.3706644025388</v>
       </c>
       <c r="T10" t="n">
-        <v>920.8870058181849</v>
+        <v>417.6040489720648</v>
       </c>
       <c r="U10" t="n">
-        <v>920.8870058181849</v>
+        <v>417.6040489720648</v>
       </c>
       <c r="V10" t="n">
-        <v>920.8870058181849</v>
+        <v>417.6040489720648</v>
       </c>
       <c r="W10" t="n">
-        <v>920.8870058181849</v>
+        <v>417.6040489720648</v>
       </c>
       <c r="X10" t="n">
-        <v>920.8870058181849</v>
+        <v>417.6040489720648</v>
       </c>
       <c r="Y10" t="n">
-        <v>920.8870058181849</v>
+        <v>196.8114698285347</v>
       </c>
     </row>
     <row r="11">
@@ -5030,58 +5030,58 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075796</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K12" t="n">
-        <v>280.8495004245706</v>
+        <v>244.2098454714574</v>
       </c>
       <c r="L12" t="n">
-        <v>776.1751066403293</v>
+        <v>739.5354516872161</v>
       </c>
       <c r="M12" t="n">
-        <v>1373.553594266881</v>
+        <v>1336.913939313768</v>
       </c>
       <c r="N12" t="n">
-        <v>2001.151557821488</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>571.6607764188008</v>
+        <v>702.4944101284095</v>
       </c>
       <c r="C13" t="n">
-        <v>402.7245934908938</v>
+        <v>533.5582272005026</v>
       </c>
       <c r="D13" t="n">
-        <v>402.7245934908938</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="E13" t="n">
-        <v>402.7245934908938</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908938</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G13" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
@@ -5209,40 +5209,40 @@
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570813</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279798</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853356</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580256</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832658</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487563</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510504</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854702</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648815</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611854</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138365</v>
+        <v>1104.935454102179</v>
       </c>
       <c r="Y13" t="n">
-        <v>753.3092412490405</v>
+        <v>884.1428749586493</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="15">
@@ -5349,31 +5349,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="N15" t="n">
-        <v>2297.690135143765</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>2102.574735228845</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E16" t="n">
-        <v>402.7245934908939</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908939</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
@@ -5479,7 +5479,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5501,19 +5501,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075807</v>
@@ -5534,7 +5534,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5592,25 +5592,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>352.5519571452614</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>949.9304447718133</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>1577.52840832642</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O18" t="n">
-        <v>2129.438138565707</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400696</v>
       </c>
       <c r="C19" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121627</v>
       </c>
       <c r="D19" t="n">
-        <v>402.7245934908939</v>
+        <v>194.800778399827</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908939</v>
+        <v>194.800778399827</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908939</v>
+        <v>194.800778399827</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>194.800778399827</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5704,19 +5704,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854704</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138395</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703094</v>
       </c>
     </row>
     <row r="20">
@@ -5732,28 +5732,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5765,7 +5765,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5826,31 +5826,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N21" t="n">
-        <v>2297.690135143765</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5890,19 +5890,19 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121643</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121643</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121643</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5984,22 +5984,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
         <v>3640.422291068009</v>
@@ -6066,28 +6066,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>280.8495004245706</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>776.1751066403293</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1373.553594266881</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>721.7774158311365</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>552.8412329032296</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6175,22 +6175,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2185.384895601574</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1896.309668945771</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1641.625180739884</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1352.208010702924</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>1124.218459804906</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>903.4258806613763</v>
       </c>
     </row>
     <row r="26">
@@ -6206,28 +6206,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6306,22 +6306,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>139.234765840794</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797187</v>
+        <v>634.5603720565526</v>
       </c>
       <c r="M27" t="n">
-        <v>691.1951506745238</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N27" t="n">
-        <v>1318.79311422913</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O27" t="n">
-        <v>1870.702844468417</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2294.325993963485</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
         <v>2516.421633107662</v>
@@ -6358,19 +6358,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>557.5558870561822</v>
+        <v>513.8536007400694</v>
       </c>
       <c r="C28" t="n">
-        <v>388.6197041282753</v>
+        <v>513.8536007400694</v>
       </c>
       <c r="D28" t="n">
-        <v>388.6197041282753</v>
+        <v>363.7369613277336</v>
       </c>
       <c r="E28" t="n">
-        <v>240.7066105458822</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F28" t="n">
-        <v>93.81666304797187</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
         <v>93.81666304797187</v>
@@ -6403,31 +6403,31 @@
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R28" t="n">
-        <v>2423.619666148774</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="S28" t="n">
-        <v>2240.764831803678</v>
+        <v>2197.062545487565</v>
       </c>
       <c r="T28" t="n">
-        <v>2021.163366826619</v>
+        <v>1977.461080510506</v>
       </c>
       <c r="U28" t="n">
-        <v>1732.088140170817</v>
+        <v>1688.385853854704</v>
       </c>
       <c r="V28" t="n">
-        <v>1477.40365196493</v>
+        <v>1433.701365648817</v>
       </c>
       <c r="W28" t="n">
-        <v>1187.986481927969</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X28" t="n">
-        <v>959.9969310299521</v>
+        <v>916.2946447138393</v>
       </c>
       <c r="Y28" t="n">
-        <v>739.2043518864219</v>
+        <v>695.5020655703091</v>
       </c>
     </row>
     <row r="29">
@@ -6461,19 +6461,19 @@
         <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6537,25 +6537,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L30" t="n">
-        <v>589.1422692637306</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438176</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P30" t="n">
         <v>2283.159972732779</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188008</v>
+        <v>1031.260321675049</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908939</v>
+        <v>862.3241387471426</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908939</v>
+        <v>712.2074993348068</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908939</v>
+        <v>564.2944057524137</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6652,19 +6652,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1202.091371290588</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="X31" t="n">
-        <v>974.1018203925706</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.3092412490405</v>
+        <v>1212.908786505289</v>
       </c>
     </row>
     <row r="32">
@@ -6686,10 +6686,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
@@ -6774,28 +6774,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="N33" t="n">
-        <v>2299.457522348532</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121643</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121643</v>
+        <v>376.4492432300683</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121643</v>
+        <v>376.4492432300683</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121643</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G34" t="n">
-        <v>177.7213185270443</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6932,13 +6932,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -7017,22 +7017,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M36" t="n">
-        <v>691.1951506745238</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q36" t="n">
         <v>2516.421633107662</v>
@@ -7072,19 +7072,19 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121643</v>
+        <v>390.823249958218</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121643</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121643</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G37" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7160,34 +7160,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7248,31 +7248,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1814.118720444889</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O39" t="n">
-        <v>2366.028450684176</v>
+        <v>2223.769289033212</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>727.9786782557277</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908939</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908939</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7369,13 +7369,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.091371290588</v>
+        <v>1358.409273127515</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925706</v>
+        <v>1130.419722229497</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490405</v>
+        <v>909.6271430859674</v>
       </c>
     </row>
     <row r="41">
@@ -7400,31 +7400,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7497,19 +7497,19 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1671.859558793925</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N42" t="n">
-        <v>2299.457522348532</v>
+        <v>1702.079034721979</v>
       </c>
       <c r="O42" t="n">
-        <v>2553.061288060775</v>
+        <v>2253.988764961266</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121643</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121643</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G43" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7622,22 +7622,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
@@ -7646,7 +7646,7 @@
         <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075813</v>
@@ -7679,19 +7679,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>589.1422692637306</v>
+        <v>943.510265746755</v>
       </c>
       <c r="M45" t="n">
-        <v>1186.520756890282</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="N45" t="n">
-        <v>1814.118720444889</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O45" t="n">
-        <v>2366.028450684176</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>198.027470314254</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>198.027470314254</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7837,19 +7837,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -23419,16 +23419,16 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23479,10 +23479,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>186.7544012944549</v>
       </c>
       <c r="Y13" t="n">
-        <v>57.22910392194672</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23656,22 +23656,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>127.7255247667965</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856724</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23890,10 +23890,10 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23902,10 +23902,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>40.32043864788731</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -24130,22 +24130,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>127.7255247667966</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>57.22910392194223</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24367,7 +24367,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24379,7 +24379,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24415,7 +24415,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>205.8445769401546</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24601,19 +24601,19 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>44.73700564187388</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>43.26526345294994</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24841,13 +24841,13 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>66.73277020259215</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24856,7 +24856,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24892,16 +24892,16 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25072,28 +25072,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>112.4047682534901</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25312,22 +25312,22 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>45.44677382459312</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25552,10 +25552,10 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25564,7 +25564,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25609,7 +25609,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>57.22910392194231</v>
+        <v>211.9838267404998</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25783,16 +25783,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>32.1518465585626</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25801,7 +25801,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -26032,16 +26032,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>118.3918499711701</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26077,7 +26077,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>841353.9758775395</v>
+        <v>841353.9758775396</v>
       </c>
     </row>
     <row r="6">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>841353.9758775396</v>
+        <v>841353.9758775397</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>841353.9758775395</v>
+        <v>841353.9758775396</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>841353.9758775396</v>
+        <v>841353.9758775397</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>841353.9758775396</v>
+        <v>841353.9758775397</v>
       </c>
     </row>
     <row r="13">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>841353.9758775396</v>
+        <v>841353.9758775397</v>
       </c>
     </row>
     <row r="16">
@@ -26311,43 +26311,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>595255.2831516051</v>
+        <v>595255.2831516052</v>
       </c>
       <c r="C2" t="n">
-        <v>595255.2831516055</v>
+        <v>595255.2831516053</v>
       </c>
       <c r="D2" t="n">
-        <v>595255.2831516055</v>
+        <v>595255.2831516057</v>
       </c>
       <c r="E2" t="n">
-        <v>585181.2847752545</v>
+        <v>585181.2847752544</v>
       </c>
       <c r="F2" t="n">
-        <v>585181.2847752545</v>
+        <v>585181.2847752544</v>
       </c>
       <c r="G2" t="n">
-        <v>585181.2847752545</v>
+        <v>585181.2847752548</v>
       </c>
       <c r="H2" t="n">
-        <v>585181.2847752543</v>
+        <v>585181.2847752544</v>
       </c>
       <c r="I2" t="n">
-        <v>585181.2847752545</v>
+        <v>585181.2847752544</v>
       </c>
       <c r="J2" t="n">
         <v>585181.2847752543</v>
       </c>
       <c r="K2" t="n">
-        <v>585181.2847752545</v>
+        <v>585181.2847752543</v>
       </c>
       <c r="L2" t="n">
         <v>585181.2847752543</v>
       </c>
       <c r="M2" t="n">
+        <v>585181.2847752545</v>
+      </c>
+      <c r="N2" t="n">
         <v>585181.2847752544</v>
-      </c>
-      <c r="N2" t="n">
-        <v>585181.2847752543</v>
       </c>
       <c r="O2" t="n">
         <v>585181.2847752544</v>
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727593</v>
+        <v>1328744.745727592</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.07046923605958e-10</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073552</v>
+        <v>325412.4618073553</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551181</v>
+        <v>85055.02793551184</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,34 +26415,34 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>93596.74410405259</v>
+      </c>
+      <c r="C4" t="n">
         <v>93596.74410405254</v>
       </c>
-      <c r="C4" t="n">
+      <c r="D4" t="n">
         <v>93596.74410405256</v>
-      </c>
-      <c r="D4" t="n">
-        <v>93596.74410405257</v>
       </c>
       <c r="E4" t="n">
         <v>14826.69604186736</v>
       </c>
       <c r="F4" t="n">
-        <v>14826.69604186736</v>
+        <v>14826.69604186742</v>
       </c>
       <c r="G4" t="n">
         <v>14826.69604186736</v>
       </c>
       <c r="H4" t="n">
-        <v>14826.69604186736</v>
+        <v>14826.69604186738</v>
       </c>
       <c r="I4" t="n">
-        <v>14826.69604186737</v>
+        <v>14826.69604186735</v>
       </c>
       <c r="J4" t="n">
         <v>14826.69604186736</v>
       </c>
       <c r="K4" t="n">
-        <v>14826.69604186736</v>
+        <v>14826.69604186735</v>
       </c>
       <c r="L4" t="n">
         <v>14826.69604186736</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-935020.1472414334</v>
+        <v>-935020.147241433</v>
       </c>
       <c r="C6" t="n">
-        <v>393724.5984861597</v>
+        <v>393724.5984861592</v>
       </c>
       <c r="D6" t="n">
-        <v>393724.5984861597</v>
+        <v>393724.5984861602</v>
       </c>
       <c r="E6" t="n">
-        <v>143819.5971021249</v>
+        <v>143784.8591766889</v>
       </c>
       <c r="F6" t="n">
-        <v>469232.0589094801</v>
+        <v>469197.3209840443</v>
       </c>
       <c r="G6" t="n">
-        <v>469232.0589094801</v>
+        <v>469197.3209840446</v>
       </c>
       <c r="H6" t="n">
-        <v>469232.0589094798</v>
+        <v>469197.3209840442</v>
       </c>
       <c r="I6" t="n">
-        <v>469232.0589094801</v>
+        <v>469197.3209840442</v>
       </c>
       <c r="J6" t="n">
-        <v>251700.8565122024</v>
+        <v>251666.1185867666</v>
       </c>
       <c r="K6" t="n">
-        <v>469232.0589094801</v>
+        <v>469197.3209840441</v>
       </c>
       <c r="L6" t="n">
-        <v>469232.0589094798</v>
+        <v>469197.3209840441</v>
       </c>
       <c r="M6" t="n">
-        <v>384177.0309739682</v>
+        <v>384142.2930485325</v>
       </c>
       <c r="N6" t="n">
-        <v>469232.0589094798</v>
+        <v>469197.3209840442</v>
       </c>
       <c r="O6" t="n">
-        <v>469232.0589094799</v>
+        <v>469197.3209840442</v>
       </c>
       <c r="P6" t="n">
-        <v>469232.0589094799</v>
+        <v>469197.3209840442</v>
       </c>
     </row>
   </sheetData>
@@ -26793,7 +26793,7 @@
         <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26960,13 +26960,13 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,16 +27379,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>244.4988012306536</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27436,7 +27436,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>289.8157596099704</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27473,7 +27473,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.989519660128281e-13</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27537,25 +27537,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>72.66698746754824</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>137.5564874287954</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,10 +27582,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>219.5489492761692</v>
@@ -27594,10 +27594,10 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27619,19 +27619,19 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.3723148319973</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27664,22 +27664,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>277.256643680326</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27777,10 +27777,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27789,7 +27789,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
         <v>96.35242040983809</v>
@@ -27819,16 +27819,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>35.38479799627896</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>100.045257699721</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27850,25 +27850,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>271.7461296822324</v>
       </c>
       <c r="H8" t="n">
-        <v>267.0497091470564</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27901,13 +27901,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -28008,28 +28008,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>113.7900231940195</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>107.7439527351648</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,13 +28056,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
@@ -28077,7 +28077,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28156,7 +28156,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -28281,7 +28281,7 @@
         <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>-3.197455209038191e-12</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
         <v>0</v>
@@ -28339,7 +28339,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28503,7 +28503,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>-1.696776052995119e-12</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -28564,7 +28564,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -28776,7 +28776,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>-1.809644481579793e-13</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -29035,7 +29035,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -29050,7 +29050,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>-1.70530256582424e-13</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -29290,7 +29290,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -29475,7 +29475,7 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>-1.696776052995119e-12</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -31039,43 +31039,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I2" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J2" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
@@ -31124,40 +31124,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K3" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31197,13 +31197,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
@@ -31212,16 +31212,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M4" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P4" t="n">
         <v>237.6785118802169</v>
@@ -31230,16 +31230,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31513,43 +31513,43 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I8" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J8" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
@@ -31598,40 +31598,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138799</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31671,13 +31671,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
@@ -31686,16 +31686,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M10" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P10" t="n">
         <v>237.6785118802169</v>
@@ -31704,16 +31704,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31841,7 +31841,7 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>326.7634969305194</v>
+        <v>289.7537444526272</v>
       </c>
       <c r="L12" t="n">
         <v>638.8832749473072</v>
@@ -31862,7 +31862,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -32075,7 +32075,7 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
         <v>475.1391886422585</v>
@@ -32084,19 +32084,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>353.3934907042774</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32312,13 +32312,13 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
@@ -32327,13 +32327,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>164.9290651940687</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
@@ -32467,7 +32467,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
         <v>466.7546155663283</v>
@@ -32546,10 +32546,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
         <v>475.1391886422585</v>
@@ -32561,19 +32561,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>400.5469039565762</v>
+        <v>483.3274636075166</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32786,10 +32786,10 @@
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
@@ -32801,16 +32801,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>360.9226811202611</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -32944,7 +32944,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
         <v>699.5441750817575</v>
@@ -33026,10 +33026,10 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>183.7183104822601</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
@@ -33038,13 +33038,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>364.3208035245835</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
         <v>182.6892564418561</v>
@@ -33257,7 +33257,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>126.8376266666667</v>
@@ -33266,10 +33266,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>553.392502062293</v>
       </c>
       <c r="M30" t="n">
-        <v>233.9389431948335</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
@@ -33278,7 +33278,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>375.599612848529</v>
@@ -33494,31 +33494,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>742.935485982477</v>
       </c>
       <c r="O33" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
@@ -33652,7 +33652,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33661,7 +33661,7 @@
         <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162566</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
         <v>965.6463440175675</v>
@@ -33737,7 +33737,7 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
         <v>138.5543797798742</v>
@@ -33746,7 +33746,7 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>754.0002396832328</v>
+        <v>652.3203287778407</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437243</v>
@@ -33755,7 +33755,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>182.6892564418561</v>
@@ -33904,7 +33904,7 @@
         <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
         <v>926.5868626460027</v>
@@ -33968,13 +33968,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473072</v>
@@ -33983,19 +33983,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>322.8964653704906</v>
+        <v>193.964997009853</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34126,7 +34126,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34217,22 +34217,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>163.4402738502018</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34366,10 +34366,10 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L44" t="n">
         <v>867.846407116256</v>
@@ -34442,34 +34442,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>506.5895320981981</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K3" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P3" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034286</v>
       </c>
       <c r="K4" t="n">
-        <v>99.30389319966704</v>
+        <v>99.30389319966699</v>
       </c>
       <c r="L4" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M4" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N4" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O4" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P4" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106927</v>
       </c>
       <c r="Q4" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014217</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340057</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034286</v>
       </c>
       <c r="K10" t="n">
-        <v>99.30389319966704</v>
+        <v>99.30389319966699</v>
       </c>
       <c r="L10" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M10" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N10" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O10" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P10" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106927</v>
       </c>
       <c r="Q10" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014217</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35489,7 +35489,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>188.9220579561604</v>
+        <v>151.9123054782682</v>
       </c>
       <c r="L12" t="n">
         <v>500.328895167433</v>
@@ -35510,7 +35510,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35577,7 +35577,7 @@
         <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899029</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
         <v>373.2618997060454</v>
@@ -35723,7 +35723,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>337.2977496678996</v>
@@ -35732,19 +35732,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>219.4190832899471</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35960,13 +35960,13 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>261.3487819164541</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
@@ -35975,13 +35975,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>22.33282074962425</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36115,7 +36115,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
@@ -36194,10 +36194,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>337.2977496678996</v>
@@ -36209,19 +36209,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>257.9506595121318</v>
+        <v>340.7312191630721</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36434,10 +36434,10 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
@@ -36449,16 +36449,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>220.9409070342396</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36592,7 +36592,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
         <v>479.454324036777</v>
@@ -36674,10 +36674,10 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>45.87687150790109</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
@@ -36686,13 +36686,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>224.339029438562</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
         <v>37.00975247789211</v>
@@ -36771,7 +36771,7 @@
         <v>295.631773306625</v>
       </c>
       <c r="Q28" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998967</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36905,7 +36905,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -36914,10 +36914,10 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>414.8381222824188</v>
       </c>
       <c r="M30" t="n">
-        <v>91.80490927281522</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
@@ -36926,7 +36926,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>235.6178387625075</v>
@@ -37142,31 +37142,31 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>611.5937738991437</v>
       </c>
       <c r="O33" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37300,7 +37300,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37309,7 +37309,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462693</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
         <v>735.3001107902948</v>
@@ -37385,7 +37385,7 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -37394,7 +37394,7 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>622.6585275998996</v>
+        <v>520.9786166945074</v>
       </c>
       <c r="O36" t="n">
         <v>557.4845759992799</v>
@@ -37403,7 +37403,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>37.00975247789211</v>
@@ -37552,7 +37552,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O38" t="n">
         <v>696.488651224316</v>
@@ -37616,13 +37616,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
         <v>500.328895167433</v>
@@ -37631,19 +37631,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>188.9220579561604</v>
+        <v>59.99058959552271</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37774,7 +37774,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37865,22 +37865,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>29.46586643587157</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38014,10 +38014,10 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L44" t="n">
         <v>632.0799921462688</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>368.0351523183239</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
